--- a/wwwroot/Templates/Dismissals/send_recruits.xlsx
+++ b/wwwroot/Templates/Dismissals/send_recruits.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SPRT\wwwroot\Templates\Dismissals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NewSprt\wwwroot\Templates\Dismissals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433D124-3895-42CF-A23F-4C906C93046C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4DB386-2C07-44B1-A5D7-56E56A5EA0BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Dismissals">'Лист 1'!$A$3:$G$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Лист 1'!$B$1:$G$8</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -34,27 +38,6 @@
     <t>Примечание</t>
   </si>
   <si>
-    <t>#NUM</t>
-  </si>
-  <si>
-    <t>#VK</t>
-  </si>
-  <si>
-    <t>#NAME</t>
-  </si>
-  <si>
-    <t>#DATE_FROM</t>
-  </si>
-  <si>
-    <t>#DATE_TO</t>
-  </si>
-  <si>
-    <t>Список призывников в увольнении на #CURRENT_DATE</t>
-  </si>
-  <si>
-    <t>#NOTICE</t>
-  </si>
-  <si>
     <t>Начальник отдела 
 (подготовки и призыва граждан на военную службу)</t>
   </si>
@@ -65,7 +48,28 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>полковник                                                                                И.Каримов</t>
+    <t>{{item.Index}}</t>
+  </si>
+  <si>
+    <t>{{item.FullName}}</t>
+  </si>
+  <si>
+    <t>{{item.SendDismissalDate}}</t>
+  </si>
+  <si>
+    <t>{{item.ReturnDate}}</t>
+  </si>
+  <si>
+    <t>{{item.Notice}}</t>
+  </si>
+  <si>
+    <t>Список призывников в увольнении на {{CurrentDate}}</t>
+  </si>
+  <si>
+    <t>{{item.MilitaryComissariat}}</t>
+  </si>
+  <si>
+    <t>полковник                                                                                   И.Каримов</t>
   </si>
 </sst>
 </file>
@@ -452,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -569,56 +573,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -627,6 +581,26 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -692,39 +666,39 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1081,117 +1055,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>3</v>
-      </c>
+    <row r="4" spans="2:7" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="5" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G6" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+    <row r="7" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="14"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="10"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+    <row r="9" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
